--- a/data/trans_camb/P34_R-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P34_R-Dificultad-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>-4.796783459679133</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-0.01637283862461758</v>
+        <v>-0.01637283862460648</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-7.638679831944533</v>
@@ -664,7 +664,7 @@
         <v>-5.346144140239334</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-2.459385768133831</v>
+        <v>-2.459385768133837</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-14.64077920917669</v>
+        <v>-14.35568390635659</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-11.57324233967384</v>
+        <v>-11.97676970559214</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-12.19359672244321</v>
+        <v>-11.99444373809452</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-11.05837130272428</v>
+        <v>-10.64400192781336</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-8.935717116049984</v>
+        <v>-8.956717858822243</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-5.00033237123326</v>
+        <v>-4.292132228631462</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-10.87996565164742</v>
+        <v>-10.71561148294778</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-8.945256212527873</v>
+        <v>-8.305478888426114</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-5.989816707667186</v>
+        <v>-5.986398426603164</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-4.501950828116575</v>
+        <v>-4.572746801727135</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-1.54736022313923</v>
+        <v>-2.034062999387439</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3002832923205924</v>
+        <v>0.3580065667537421</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-2.654363323268517</v>
+        <v>-2.449913018814681</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-0.8526946376355127</v>
+        <v>-0.5771144357753247</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>4.591297208639165</v>
+        <v>4.398937830319341</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-4.052908812955824</v>
+        <v>-4.40838997683587</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-2.472488802065143</v>
+        <v>-2.021473321871611</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.402054158971785</v>
+        <v>1.264296864619134</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>-0.1344838519924992</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.0004590331051628152</v>
+        <v>-0.000459033105162504</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.2051629043646628</v>
@@ -769,7 +769,7 @@
         <v>-0.1435890079299751</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.06605522658946256</v>
+        <v>-0.0660552265894627</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3401258880125421</v>
+        <v>-0.3386224720207927</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2726007675664229</v>
+        <v>-0.2776815456598164</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2885331301985705</v>
+        <v>-0.283057080109734</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2914954126022074</v>
+        <v>-0.2847273516044834</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.235965998649688</v>
+        <v>-0.2336330897372221</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1293431684094185</v>
+        <v>-0.116433498127364</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2819175454180526</v>
+        <v>-0.2757542683780402</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2278067792590991</v>
+        <v>-0.2142916509264148</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.1544388459138563</v>
+        <v>-0.1553472100880635</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.1241724736452076</v>
+        <v>-0.1255125322246036</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.04162001320712651</v>
+        <v>-0.054798292886683</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.008768554109855282</v>
+        <v>0.01206414827594864</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.08127465643674643</v>
+        <v>-0.07397860352812112</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.02380090815681813</v>
+        <v>-0.01738703574274396</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1353020540678574</v>
+        <v>0.1338677364737288</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.1162769251869739</v>
+        <v>-0.1245137207333911</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.06816365993607326</v>
+        <v>-0.05772628311690826</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.04048988775997975</v>
+        <v>0.03439730457263852</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>5.751280478114004</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>7.259175087038286</v>
+        <v>7.259175087038281</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-0.038759365769786</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-10.04580108475425</v>
+        <v>-10.63167224139496</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.634746604679547</v>
+        <v>-4.639902655335374</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-10.36008073588295</v>
+        <v>-10.16186705125414</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.113075579463618</v>
+        <v>2.750615817747618</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>1.463292237128524</v>
+        <v>1.782746800745147</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>3.790677024837458</v>
+        <v>3.594420503315932</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-2.854104514872298</v>
+        <v>-2.954424326886342</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.4567074670699272</v>
+        <v>-0.6687451654669395</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-2.087669891321544</v>
+        <v>-2.088384841663471</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-2.057708852475312</v>
+        <v>-1.684490018636688</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.893764522331203</v>
+        <v>3.89684220332062</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-1.554802045289819</v>
+        <v>-1.303232062927135</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10.36162963812021</v>
+        <v>10.07284418495193</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>9.317532123868922</v>
+        <v>9.768082971927109</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>10.75532035148509</v>
+        <v>10.89810374349261</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.098234676016366</v>
+        <v>2.804303046291874</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>5.509093483488709</v>
+        <v>5.41616821638402</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>3.415228570753261</v>
+        <v>3.501129658979937</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.2504016036561101</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3160529363733872</v>
+        <v>0.3160529363733869</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.00131605782458784</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.26712305007094</v>
+        <v>-0.2773876482364432</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1216429863097177</v>
+        <v>-0.124973838306803</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2729228679496997</v>
+        <v>-0.2700503341124314</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.08533876180974508</v>
+        <v>0.1041259245097109</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.06772997464338831</v>
+        <v>0.0670005389962663</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1487766050899576</v>
+        <v>0.141104691202008</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.09236526831834491</v>
+        <v>-0.09611940567593642</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.01501492970426016</v>
+        <v>-0.02179914585781478</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.06808125611679003</v>
+        <v>-0.06765450709951071</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.05885059965571654</v>
+        <v>-0.04981845604531654</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1149211818692743</v>
+        <v>0.1115831591452944</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.04448659928033309</v>
+        <v>-0.04041002591921811</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.4898303562788138</v>
+        <v>0.4692343634570226</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4424880038749792</v>
+        <v>0.4641113460431885</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5167489183851227</v>
+        <v>0.5241315908976797</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1106198743227395</v>
+        <v>0.09872402817974976</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1949356974351112</v>
+        <v>0.1939773031114745</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.1198055356179694</v>
+        <v>0.1238052218050329</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-10.14669427140873</v>
+        <v>-9.684947980324093</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.951452893342938</v>
+        <v>-4.330438973927969</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-6.245995284069958</v>
+        <v>-5.873934145736037</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-6.597010472675388</v>
+        <v>-6.119333846681608</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.538429807459011</v>
+        <v>-2.571598311845744</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.4952264325302644</v>
+        <v>0.494683881969418</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-6.946126339641934</v>
+        <v>-6.980197500788406</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.098371533640879</v>
+        <v>-2.219968531628383</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.613850341266967</v>
+        <v>-1.939724709321478</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-1.30647730373443</v>
+        <v>-0.9089336211029723</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.06605302285339</v>
+        <v>4.755474552735962</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.865852638759057</v>
+        <v>2.580997988521661</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.320403414093431</v>
+        <v>2.273461627320277</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>6.694888637380364</v>
+        <v>6.968937037370076</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>8.615820861863309</v>
+        <v>8.297986499390937</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>-0.8364748715725158</v>
+        <v>-0.6762790148507872</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>4.30609485459494</v>
+        <v>4.166300380101202</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>3.817416977598838</v>
+        <v>4.195870075686449</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2527356200158906</v>
+        <v>-0.2435355261754312</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1019932676239573</v>
+        <v>-0.1062681184118361</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.15373565199536</v>
+        <v>-0.1468107139310961</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1920005090418305</v>
+        <v>-0.1833908437514593</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.0736194058190078</v>
+        <v>-0.07371519712038041</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01415873144391296</v>
+        <v>0.0141254064259701</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1914280698132838</v>
+        <v>-0.1888226785531051</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.05929807626458281</v>
+        <v>-0.05961954295737349</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.04349661193318626</v>
+        <v>-0.05330654063210603</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.03440334933130266</v>
+        <v>-0.02634299991303465</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.1382457529558396</v>
+        <v>0.129684232998279</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.08009077250026275</v>
+        <v>0.07051929643311509</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.07806529199190125</v>
+        <v>0.0731584298025183</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2194399762167051</v>
+        <v>0.2292687553255622</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2917331291020202</v>
+        <v>0.2725762893593223</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.02556726044344203</v>
+        <v>-0.01891358179582038</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.1261380201504274</v>
+        <v>0.1245197070398503</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.1129934057238836</v>
+        <v>0.1234111372224997</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-0.3980524105450356</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-2.432359995837696</v>
+        <v>-2.43235999583769</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-11.89986876411874</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-14.46787679619034</v>
+        <v>-14.86766394862843</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-6.754708636422659</v>
+        <v>-7.155937363850182</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-8.170574575372205</v>
+        <v>-8.009877491087472</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-19.26905452864153</v>
+        <v>-18.9335490385218</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-14.83238726222505</v>
+        <v>-14.80931179769274</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-10.78834444763768</v>
+        <v>-11.47675593629693</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-15.11074416021106</v>
+        <v>-14.80408376281618</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-8.877902751971281</v>
+        <v>-8.962810399359181</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-7.746682432009036</v>
+        <v>-8.093954092728161</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-1.212872849339507</v>
+        <v>-2.07174864725965</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.998014754596389</v>
+        <v>6.034773006521474</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.323517910785449</v>
+        <v>3.452677543300926</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-5.100776556589104</v>
+        <v>-5.159726562071683</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-1.995182104580664</v>
+        <v>-1.251035152580223</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.597687450543888</v>
+        <v>0.8780751593578381</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-5.726195022507595</v>
+        <v>-5.222830117257748</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.5795452134812307</v>
+        <v>0.3870750303978341</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.526443130001205</v>
+        <v>0.4779192960319982</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.009125711230298818</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.05576405101969426</v>
+        <v>-0.05576405101969414</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.2894731716620723</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.3088566110783231</v>
+        <v>-0.3168059201934756</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1463865979369942</v>
+        <v>-0.1536869693520579</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1723885687028984</v>
+        <v>-0.1719834025391286</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.4250935252910673</v>
+        <v>-0.4248006163788206</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3270544505875937</v>
+        <v>-0.3320902265528365</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.236834782855017</v>
+        <v>-0.2542424152979561</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.3365459774579708</v>
+        <v>-0.3281975317280896</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1941284933722926</v>
+        <v>-0.2000402478700409</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.1718541108967888</v>
+        <v>-0.1755968415892242</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.02562103673969547</v>
+        <v>-0.04842722582106788</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1503246615478056</v>
+        <v>0.1496816153697079</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.08319739122612145</v>
+        <v>0.08639311158247237</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.1356567490611562</v>
+        <v>-0.1304653555737168</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.05005265461229493</v>
+        <v>-0.02918632186178711</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.04255688387876147</v>
+        <v>0.02454466043304584</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.1423658938529575</v>
+        <v>-0.128352031668967</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.01615538679109859</v>
+        <v>0.007623936041837911</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.01339912877137419</v>
+        <v>0.01213418837398767</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-1.921640984003792</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-2.890617549056773</v>
+        <v>-2.890617549056778</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>-1.74619241292881</v>
@@ -1520,7 +1520,7 @@
         <v>-0.880787119765819</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>0.219459728493232</v>
+        <v>0.2194597284932431</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-9.43675577641609</v>
+        <v>-9.43592617691338</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-4.579017020275543</v>
+        <v>-4.224413215788305</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-5.398743895820126</v>
+        <v>-5.358937812597376</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-3.91679848655917</v>
+        <v>-3.952323190732267</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-2.074939931203213</v>
+        <v>-2.075393769621195</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>1.266192107729022</v>
+        <v>1.157739336792018</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-6.027597528575831</v>
+        <v>-5.980295933978015</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-2.539153578848961</v>
+        <v>-2.47454738908136</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-1.362876043029244</v>
+        <v>-1.399616674343926</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-4.791808313566427</v>
+        <v>-4.761831138089731</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.4803151522961556</v>
+        <v>0.459712192256528</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-0.3238199563585963</v>
+        <v>-0.5258416293806133</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.429961202925702</v>
+        <v>0.4695154840183443</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>2.456345599109922</v>
+        <v>2.376243259396941</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>5.388503330753677</v>
+        <v>5.416571212628782</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>-2.68902069619338</v>
+        <v>-2.805927796456279</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.7976607236899271</v>
+        <v>0.7373829046709632</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>1.946447308105844</v>
+        <v>1.932023999659907</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.04988375340682263</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.07503735308046362</v>
+        <v>-0.07503735308046378</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-0.05611289365156066</v>
@@ -1625,7 +1625,7 @@
         <v>-0.02533331196711636</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.006312128823609367</v>
+        <v>0.006312128823609687</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.2367737808719264</v>
+        <v>-0.2378162889105122</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.1151840856669898</v>
+        <v>-0.1065828073978663</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.1353152672064387</v>
+        <v>-0.136783242285838</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1210321807027153</v>
+        <v>-0.1224865546823806</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.06426910304553969</v>
+        <v>-0.06465707135615251</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.04042635313106102</v>
+        <v>0.03622890103071853</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.1692166644592564</v>
+        <v>-0.1668637784430934</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.07158871465706694</v>
+        <v>-0.07061319064497366</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.03876200761984985</v>
+        <v>-0.03958954672928371</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.1275287680336325</v>
+        <v>-0.1266079287205266</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.01271044982133331</v>
+        <v>0.01232781700374452</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.009308641867084586</v>
+        <v>-0.01446570080851063</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.01420749248576601</v>
+        <v>0.01580079139823483</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.08241722115710516</v>
+        <v>0.08002099147247931</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1798233703897552</v>
+        <v>0.184319726080569</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>-0.07729721726903924</v>
+        <v>-0.08149368023184077</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.02350072520604234</v>
+        <v>0.02175739499923485</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.05745883424943585</v>
+        <v>0.05733054583936231</v>
       </c>
     </row>
     <row r="34">
